--- a/SadHT16_4ppm_3iso_M0Y0/PROP_MOUSE_TL.xlsx
+++ b/SadHT16_4ppm_3iso_M0Y0/PROP_MOUSE_TL.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Total Intensity values" sheetId="1" state="visible" r:id="rId1"/>

--- a/SadHT16_4ppm_3iso_M0Y0/PROP_MOUSE_TL.xlsx
+++ b/SadHT16_4ppm_3iso_M0Y0/PROP_MOUSE_TL.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Total Intensity values" sheetId="1" state="visible" r:id="rId1"/>

--- a/SadHT16_4ppm_3iso_M0Y0/PROP_MOUSE_TL.xlsx
+++ b/SadHT16_4ppm_3iso_M0Y0/PROP_MOUSE_TL.xlsx
@@ -2,6 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
